--- a/Excel/auth_64/main/01/s12/cmn.xlsx
+++ b/Excel/auth_64/main/01/s12/cmn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>OFFSET</t>
   </si>
@@ -20,166 +20,340 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>Ah, there you are.</t>
   </si>
   <si>
+    <t>Ah, aí está você.</t>
+  </si>
+  <si>
     <t>How do you do, sir?</t>
   </si>
   <si>
+    <t>Como você está, senhor?</t>
+  </si>
+  <si>
     <t>Fine, thanks.</t>
   </si>
   <si>
+    <t>Estou bem, obrigado.</t>
+  </si>
+  <si>
     <t>Here's this month's cut.\nI'll leave it with you.</t>
   </si>
   <si>
+    <t>Aqui está o resto deste mês.
+\nEu vou deixá-lo contigo.</t>
+  </si>
+  <si>
     <t>Thanks.</t>
   </si>
   <si>
+    <t>Obrigado.</t>
+  </si>
+  <si>
     <t>You didn't do anything reckless?</t>
   </si>
   <si>
+    <t>Não fizeram nada de imprudente?</t>
+  </si>
+  <si>
     <t>No, sir.</t>
   </si>
   <si>
+    <t>Não, senhor.</t>
+  </si>
+  <si>
     <t>Kazuma.</t>
   </si>
   <si>
     <t>If you push things too far,\nthe men under you will too.</t>
   </si>
   <si>
+    <t>Se formos longe demais,
+\nos homens debaixo de você também o farão.</t>
+  </si>
+  <si>
     <t>They all began as punks, looking for trouble\nwherever they could find it.</t>
   </si>
   <si>
+    <t>Todos eles começaram como marginais, à procura de
+\nproblemas onde quer que o encontrassem.</t>
+  </si>
+  <si>
     <t>Don't worry about Kiryu.\nHe has his head on straight.</t>
   </si>
   <si>
+    <t>Não se preocupe com o Kiryu.
+\nEle tem juízo na cabeça.</t>
+  </si>
+  <si>
     <t>Besides, the boss here has no room to talk...</t>
   </si>
   <si>
+    <t>Além disso, o chefe aqui não tem espaço para falar...</t>
+  </si>
+  <si>
     <t>You know, he used to be the Tojo Clan's\nfinest assass—</t>
   </si>
   <si>
+    <t>Sabe, quando ele estava no clã Tojo 
+\ncostumava a ser o melhor assas—</t>
+  </si>
+  <si>
     <t>Kashiwagi!</t>
   </si>
   <si>
     <t>I-I'm sorry.</t>
   </si>
   <si>
+    <t>S-Sinto muito.</t>
+  </si>
+  <si>
     <t>Give us a minute, if you would.</t>
   </si>
   <si>
+    <t>Pode nos dar um minuto, se puder.</t>
+  </si>
+  <si>
     <t>Yes, sir.</t>
   </si>
   <si>
+    <t>Sim, senhor.</t>
+  </si>
+  <si>
     <t>To think, you're about to become patriarch\nof your own family.</t>
   </si>
   <si>
+    <t>Parando para pensar, você está prestes
+\na se tornar patriarca da sua própria família.</t>
+  </si>
+  <si>
     <t>Seems like only yesterday you were just a\nchild.</t>
   </si>
   <si>
+    <t>Parece que até ontem
+\nvocê era apenas um garoto.</t>
+  </si>
+  <si>
     <t>I wouldn't be here without you, sir.</t>
   </si>
   <si>
+    <t>Eu não estaria aqui sem ti, senhor.</t>
+  </si>
+  <si>
     <t>I'm grateful for that.</t>
   </si>
   <si>
+    <t>Eu sou grato por isso.</t>
+  </si>
+  <si>
     <t>Hey, don't get all formal on me.</t>
   </si>
   <si>
+    <t>Ei, não precisa ser tão formal comigo.</t>
+  </si>
+  <si>
+    <t>Certo.</t>
+  </si>
+  <si>
     <t>Have you been to Sunflower lately?</t>
   </si>
   <si>
+    <t>Você tem ido ao Sunflower ultimamente?</t>
+  </si>
+  <si>
     <t>No. Neither has Nishiki or Yumi.</t>
   </si>
   <si>
+    <t>Não. Nem o Nishiki e nem a Yumi.</t>
+  </si>
+  <si>
     <t>You should drop in now and again.</t>
   </si>
   <si>
+    <t>Você devia visitá-lo mais vezes.</t>
+  </si>
+  <si>
     <t>That orphanage is more or less the only place\nall three of you can call home.</t>
   </si>
   <si>
+    <t>Esse orfanato é mais ou menos o único lugar
+\nque vocês os três podem chamar de lar.</t>
+  </si>
+  <si>
     <t>You're right.</t>
   </si>
   <si>
+    <t>Tem razão.</t>
+  </si>
+  <si>
     <t>Yeah?</t>
   </si>
   <si>
+    <t>Sim?</t>
+  </si>
+  <si>
     <t>Sorry to bother you, sir.</t>
   </si>
   <si>
+    <t>Com licença.</t>
+  </si>
+  <si>
     <t>Kiryu-san, you have a phone call.\nIt's Shinji-san.</t>
   </si>
   <si>
+    <t>Kiryu-san, tem uma ligação para você.
+\nÉ o Shinji-san.</t>
+  </si>
+  <si>
     <t>It's me.</t>
   </si>
   <si>
+    <t>Sou eu.</t>
+  </si>
+  <si>
     <t>This is Shinji!\nReina-san told me to get you, sir!</t>
   </si>
   <si>
+    <t>Aqui é o Shinji!
+\nA Reina-san me disse para te buscar, senhor!</t>
+  </si>
+  <si>
     <t>A second ago, Patriarch Dojima grabbed\nYumi-san and took off!</t>
   </si>
   <si>
+    <t>Há um segundo atrás, o Patriarca Dojima
+\npegou a Yumi-san e foi embora!</t>
+  </si>
+  <si>
     <t>Yumi!? What does the boss want with her!?</t>
   </si>
   <si>
+    <t>Yumi!? O que é que o chefe quer com ela!?</t>
+  </si>
+  <si>
     <t>I don't know the details.</t>
   </si>
   <si>
+    <t>Eu não sei os detalhes.</t>
+  </si>
+  <si>
     <t>But, Nishiki took off after the boss as\nsoon as he heard.</t>
   </si>
   <si>
+    <t>Mas, o Nishiki foi atrás do chefe 
+\nassim que ele soube.</t>
+  </si>
+  <si>
     <t>Nishiki? Where'd he go?</t>
   </si>
   <si>
+    <t>Nishiki? Para onde ele foi?</t>
+  </si>
+  <si>
     <t>The Dojima Family office.\nThe one next to the theater!</t>
   </si>
   <si>
+    <t>Para o escritório da família Dojima.
+\nO que fica ao lado do teatro!</t>
+  </si>
+  <si>
     <t>Got it. I'm heading there now!</t>
   </si>
   <si>
+    <t>Ok. Estou indo para lá agora!</t>
+  </si>
+  <si>
     <t>What's wrong?</t>
   </si>
   <si>
+    <t>O que está acontecendo?</t>
+  </si>
+  <si>
     <t>It's Dojima...\nApparently the boss took Yumi by force.</t>
   </si>
   <si>
+    <t>É o Dojima...
+\nAparentemente, o chefe levou a Yumi à força.</t>
+  </si>
+  <si>
     <t>And then Nishiki went off to save her by\nhimself.</t>
   </si>
   <si>
+    <t>E depois o Nishiki foi salvá-la sozinho.</t>
+  </si>
+  <si>
     <t>This sounds bad.</t>
   </si>
   <si>
+    <t>Isso é ruim.</t>
+  </si>
+  <si>
     <t>If a girl catches his eye,\nthe boss is capable of just about anything.</t>
   </si>
   <si>
+    <t>Se uma mulher chamar a atenção,
+\no chefe é capaz de quase tudo.</t>
+  </si>
+  <si>
     <t>Add Nishikiyama to the mix,\nand who knows what might come of it.</t>
   </si>
   <si>
+    <t>Acrescente o Nishikiyama nisso, 
+\ne quem sabe o que pode vir a acontecer.</t>
+  </si>
+  <si>
     <t>I have to go.</t>
   </si>
   <si>
+    <t>Eu tenho que ir.</t>
+  </si>
+  <si>
     <t>Don't!</t>
   </si>
   <si>
+    <t>Não vá!</t>
+  </si>
+  <si>
     <t xml:space="preserve">What?   </t>
   </si>
   <si>
+    <t xml:space="preserve">Hã?   </t>
+  </si>
+  <si>
     <t>If you get involved, you'll just make\nit worse for all three of you.</t>
   </si>
   <si>
+    <t>Se você se envolver, só vai piorar
+\nas coisas para vocês três.</t>
+  </si>
+  <si>
     <t>You need to tough this out.</t>
   </si>
   <si>
+    <t>Você precisa de aguentar esta situação.</t>
+  </si>
+  <si>
     <t>Stay put, at least until I can do something.</t>
   </si>
   <si>
+    <t>Fique quieto, até que eu possa fazer alguma coisa.</t>
+  </si>
+  <si>
     <t>Sir. Yumi and Nishiki are practically family\nto me.</t>
   </si>
   <si>
+    <t>Senhor. A Yumi e o Nishiki são 
+\npraticamente uma família para mim.</t>
+  </si>
+  <si>
     <t>So... I need to go, now!</t>
+  </si>
+  <si>
+    <t>Então... Eu preciso ir, agora!</t>
   </si>
   <si>
     <t>Kazuma!</t>
@@ -253,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -261,10 +435,10 @@
         <v>226212</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -272,10 +446,10 @@
         <v>226484</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -283,10 +457,10 @@
         <v>226756</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -294,10 +468,10 @@
         <v>227028</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -305,10 +479,10 @@
         <v>227300</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -316,10 +490,10 @@
         <v>227572</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -327,10 +501,10 @@
         <v>227844</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -338,10 +512,10 @@
         <v>228116</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -349,10 +523,10 @@
         <v>228388</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
@@ -360,10 +534,10 @@
         <v>228660</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
@@ -371,10 +545,10 @@
         <v>228932</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -382,10 +556,10 @@
         <v>229204</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -393,10 +567,10 @@
         <v>229476</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -404,10 +578,10 @@
         <v>229748</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -415,10 +589,10 @@
         <v>230020</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -426,10 +600,10 @@
         <v>230292</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -437,10 +611,10 @@
         <v>230564</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -448,10 +622,10 @@
         <v>230836</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -459,10 +633,10 @@
         <v>231108</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -470,10 +644,10 @@
         <v>231380</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23">
@@ -481,10 +655,10 @@
         <v>231652</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -492,10 +666,10 @@
         <v>231924</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -503,10 +677,10 @@
         <v>232196</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -514,10 +688,10 @@
         <v>232468</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -525,10 +699,10 @@
         <v>232740</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -536,10 +710,10 @@
         <v>233012</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -547,10 +721,10 @@
         <v>233284</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -558,10 +732,10 @@
         <v>233556</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -569,10 +743,10 @@
         <v>233828</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -580,10 +754,10 @@
         <v>234100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -591,10 +765,10 @@
         <v>234372</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
@@ -602,10 +776,10 @@
         <v>234644</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35">
@@ -613,10 +787,10 @@
         <v>234916</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36">
@@ -624,10 +798,10 @@
         <v>235188</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37">
@@ -635,10 +809,10 @@
         <v>235460</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38">
@@ -646,10 +820,10 @@
         <v>235732</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
@@ -657,10 +831,10 @@
         <v>236004</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -668,10 +842,10 @@
         <v>236276</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -679,10 +853,10 @@
         <v>236548</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
@@ -690,10 +864,10 @@
         <v>236820</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43">
@@ -701,10 +875,10 @@
         <v>237092</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44">
@@ -712,10 +886,10 @@
         <v>237364</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45">
@@ -723,10 +897,10 @@
         <v>237636</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46">
@@ -734,10 +908,10 @@
         <v>237908</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
@@ -745,10 +919,10 @@
         <v>238180</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48">
@@ -756,10 +930,10 @@
         <v>238452</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49">
@@ -767,10 +941,10 @@
         <v>238724</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
@@ -778,10 +952,10 @@
         <v>238996</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51">
@@ -789,10 +963,10 @@
         <v>239268</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52">
@@ -800,10 +974,10 @@
         <v>239540</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53">
@@ -811,10 +985,10 @@
         <v>239812</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54">
@@ -822,10 +996,10 @@
         <v>240084</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55">
@@ -833,10 +1007,10 @@
         <v>240356</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56">
@@ -844,10 +1018,10 @@
         <v>240628</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
